--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Opinnot\Alkoritmi\Tite24SortAlgoritmi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B47797-D59C-4D45-B2B7-8D7DB2378E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F987800-2229-4AE7-A28F-C7DA85947A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{714F50BE-B6FE-4BC0-89E8-F55F86D69BC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{714F50BE-B6FE-4BC0-89E8-F55F86D69BC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="26">
   <si>
     <t xml:space="preserve">    N arvolla 10000</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>Mediaani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    N  = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N = </t>
+  </si>
+  <si>
+    <t>Teoreettiset operaatio määrät</t>
+  </si>
+  <si>
+    <t>Teoreettiset operaatiomäärät</t>
   </si>
 </sst>
 </file>
@@ -109,9 +121,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
-    <numFmt numFmtId="171" formatCode="0.000000000"/>
-    <numFmt numFmtId="172" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -136,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -144,16 +156,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -488,30 +519,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB74984-EDA1-4E15-8B6D-716A43226C19}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -531,7 +565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -557,7 +591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -585,7 +619,7 @@
         <v>2.58468E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -613,7 +647,7 @@
         <v>3.5530300000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -641,7 +675,7 @@
         <v>1.201E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -669,7 +703,7 @@
         <v>1.6122E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -697,7 +731,7 @@
         <v>3.2168000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -725,11 +759,11 @@
         <v>3.2724999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -751,7 +785,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -779,7 +813,7 @@
         <v>4.0299999999999997E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -807,7 +841,7 @@
         <v>7.1699999999999995E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -835,7 +869,7 @@
         <v>9.3599999999999998E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -863,7 +897,7 @@
         <v>8.4060000000000005E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -891,7 +925,7 @@
         <v>4.4210000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -919,7 +953,7 @@
         <v>1.6239999999999999E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -928,7 +962,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -950,7 +984,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -978,7 +1012,7 @@
         <v>5.1866900000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1006,7 +1040,7 @@
         <v>1.7425099999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1034,7 +1068,7 @@
         <v>9.7499999999999998E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1062,7 +1096,7 @@
         <v>3.8620000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1090,7 +1124,7 @@
         <v>2.7680000000000001E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1118,26 +1152,26 @@
         <v>3.1710000000000001E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1159,7 +1193,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1185,7 +1219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1205,15 +1239,15 @@
         <v>45.2564621</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" ref="G27:G34" si="2">AVERAGE(B33:F33)</f>
+        <f t="shared" ref="G33:G34" si="2">AVERAGE(B33:F33)</f>
         <v>45.76575536</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" ref="H27:H34" si="3">MEDIAN(B33:F33)</f>
+        <f t="shared" ref="H33:H34" si="3">MEDIAN(B33:F33)</f>
         <v>46.008373800000001</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1241,7 +1275,7 @@
         <v>227.481202</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1261,15 +1295,15 @@
         <v>4.3309800000000002E-2</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" ref="G34:G54" si="4">AVERAGE(B35:F35)</f>
+        <f t="shared" ref="G35:G54" si="4">AVERAGE(B35:F35)</f>
         <v>4.5392799999999997E-2</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" ref="H34:H54" si="5">MEDIAN(B35:F35)</f>
+        <f t="shared" ref="H35:H54" si="5">MEDIAN(B35:F35)</f>
         <v>4.5824900000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1297,7 +1331,7 @@
         <v>6.4024800000000007E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1325,7 +1359,7 @@
         <v>6.2439799999999997E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1353,11 +1387,11 @@
         <v>0.12502070000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1379,7 +1413,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1407,7 +1441,7 @@
         <v>1.9484000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1469,7 @@
         <v>3.7159999999999998E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1463,7 +1497,7 @@
         <v>8.9297000000000005E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1491,7 +1525,7 @@
         <v>1.95414E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -1519,7 +1553,7 @@
         <v>1.0668199999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1547,11 +1581,11 @@
         <v>3.2664999999999999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1573,7 +1607,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -1601,7 +1635,7 @@
         <v>104.4524594</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -1629,7 +1663,7 @@
         <v>42.488188399999999</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -1657,7 +1691,7 @@
         <v>5.7616999999999998E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -1685,7 +1719,7 @@
         <v>2.35274E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -1713,7 +1747,7 @@
         <v>1.17378E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -1740,6 +1774,677 @@
         <f t="shared" si="5"/>
         <v>2.4001000000000001E-3</v>
       </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="7">
+        <v>500000</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" ref="B60:C65" si="7">G5</f>
+        <v>2.5791080000000001E-2</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="7"/>
+        <v>2.58468E-2</v>
+      </c>
+      <c r="D60">
+        <f>B58^2</f>
+        <v>100000000</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" ref="F60:G65" si="8">G33</f>
+        <v>45.76575536</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="8"/>
+        <v>46.008373800000001</v>
+      </c>
+      <c r="H60" s="9">
+        <f>F58^2</f>
+        <v>250000000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="7"/>
+        <v>3.5748160000000001E-2</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="7"/>
+        <v>3.5530300000000001E-2</v>
+      </c>
+      <c r="D61">
+        <f>B58^2</f>
+        <v>100000000</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="8"/>
+        <v>224.90750193999997</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="8"/>
+        <v>227.481202</v>
+      </c>
+      <c r="H61" s="9">
+        <f>F58^2</f>
+        <v>250000000000</v>
+      </c>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="7"/>
+        <v>1.22492E-3</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="7"/>
+        <v>1.201E-3</v>
+      </c>
+      <c r="D62">
+        <f>B58*LOG(B58)</f>
+        <v>40000</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="8"/>
+        <v>4.5392799999999997E-2</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="8"/>
+        <v>4.5824900000000002E-2</v>
+      </c>
+      <c r="H62" s="9">
+        <f>F58*LOG(F58)</f>
+        <v>2849485.0021680095</v>
+      </c>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="7"/>
+        <v>1.7009E-3</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="7"/>
+        <v>1.6122E-3</v>
+      </c>
+      <c r="D63">
+        <f>B58*LOG(B58)</f>
+        <v>40000</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="8"/>
+        <v>6.1005660000000003E-2</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="8"/>
+        <v>6.4024800000000007E-2</v>
+      </c>
+      <c r="H63" s="9">
+        <f>F58*LOG(F58)</f>
+        <v>2849485.0021680095</v>
+      </c>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="7"/>
+        <v>3.2209199999999999E-3</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="7"/>
+        <v>3.2168000000000001E-3</v>
+      </c>
+      <c r="D64">
+        <f>B58*(LOG(B58)^2)</f>
+        <v>160000</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="8"/>
+        <v>6.2217840000000003E-2</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="8"/>
+        <v>6.2439799999999997E-2</v>
+      </c>
+      <c r="H64" s="9">
+        <f>F58*(LOG(F58)^2)</f>
+        <v>16239129.555160841</v>
+      </c>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="7"/>
+        <v>3.2359600000000004E-3</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="7"/>
+        <v>3.2724999999999998E-3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12324730000000002</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12502070000000001</v>
+      </c>
+      <c r="H65" s="9"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="E67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" ref="B68:C73" si="9">G13</f>
+        <v>4.0859999999999998E-5</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="9"/>
+        <v>4.0299999999999997E-5</v>
+      </c>
+      <c r="D68">
+        <f>B58</f>
+        <v>10000</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" ref="F68:G73" si="10">G41</f>
+        <v>2.6423400000000004E-3</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="10"/>
+        <v>1.9484000000000001E-3</v>
+      </c>
+      <c r="H68" s="9">
+        <f>F58</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="9"/>
+        <v>7.2319999999999999E-5</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="9"/>
+        <v>7.1699999999999995E-5</v>
+      </c>
+      <c r="D69">
+        <f>B58</f>
+        <v>10000</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="10"/>
+        <v>3.6383999999999999E-4</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="10"/>
+        <v>3.7159999999999998E-4</v>
+      </c>
+      <c r="H69" s="9">
+        <f>F58</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="9"/>
+        <v>9.8759999999999996E-5</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="9"/>
+        <v>9.3599999999999998E-5</v>
+      </c>
+      <c r="D70">
+        <f>B58*LOG(B58)</f>
+        <v>40000</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="10"/>
+        <v>7.9269000000000006E-3</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="10"/>
+        <v>8.9297000000000005E-3</v>
+      </c>
+      <c r="H70" s="9">
+        <f>F58*LOG(F58)</f>
+        <v>2849485.0021680095</v>
+      </c>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="9"/>
+        <v>8.4145999999999993E-4</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="9"/>
+        <v>8.4060000000000005E-4</v>
+      </c>
+      <c r="D71">
+        <f>B58*LOG(B58)</f>
+        <v>40000</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="10"/>
+        <v>2.0041659999999999E-2</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="10"/>
+        <v>1.95414E-2</v>
+      </c>
+      <c r="H71" s="9">
+        <f>F58*LOG(F58)</f>
+        <v>2849485.0021680095</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="9"/>
+        <v>3.8904E-4</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="9"/>
+        <v>4.4210000000000001E-4</v>
+      </c>
+      <c r="D72">
+        <f>B58*LOG(B58)</f>
+        <v>40000</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="10"/>
+        <v>1.0768120000000001E-2</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="10"/>
+        <v>1.0668199999999999E-2</v>
+      </c>
+      <c r="H72" s="9">
+        <f>F58*LOG(F58)</f>
+        <v>2849485.0021680095</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="9"/>
+        <v>1.6242000000000001E-4</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="9"/>
+        <v>1.6239999999999999E-4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="10"/>
+        <v>3.1571000000000004E-3</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="10"/>
+        <v>3.2664999999999999E-3</v>
+      </c>
+      <c r="H73" s="9"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="9"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="E75" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="9"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" ref="B76:C81" si="11">G21</f>
+        <v>5.2120679999999996E-2</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="11"/>
+        <v>5.1866900000000001E-2</v>
+      </c>
+      <c r="D76">
+        <f>B58^2</f>
+        <v>100000000</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" ref="F76:G81" si="12">G49</f>
+        <v>103.28817346000001</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="12"/>
+        <v>104.4524594</v>
+      </c>
+      <c r="H76" s="9">
+        <f>F58^2</f>
+        <v>250000000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="11"/>
+        <v>1.7650119999999998E-2</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="11"/>
+        <v>1.7425099999999999E-2</v>
+      </c>
+      <c r="D77">
+        <f>B58^2</f>
+        <v>100000000</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="12"/>
+        <v>42.515691779999997</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="12"/>
+        <v>42.488188399999999</v>
+      </c>
+      <c r="H77" s="9">
+        <f>F58^2</f>
+        <v>250000000000</v>
+      </c>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="11"/>
+        <v>1.0224E-4</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="11"/>
+        <v>9.7499999999999998E-5</v>
+      </c>
+      <c r="D78">
+        <f>B58^2</f>
+        <v>100000000</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="12"/>
+        <v>6.0772000000000005E-3</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="12"/>
+        <v>5.7616999999999998E-3</v>
+      </c>
+      <c r="H78" s="9">
+        <f>F58^2</f>
+        <v>250000000000</v>
+      </c>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="11"/>
+        <v>3.7701999999999999E-4</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="11"/>
+        <v>3.8620000000000001E-4</v>
+      </c>
+      <c r="D79">
+        <f>B58*LOG(B58)</f>
+        <v>40000</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="12"/>
+        <v>2.5627859999999995E-2</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="12"/>
+        <v>2.35274E-2</v>
+      </c>
+      <c r="H79" s="9">
+        <f>F58*LOG(F58)</f>
+        <v>2849485.0021680095</v>
+      </c>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="11"/>
+        <v>3.0645999999999999E-4</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="11"/>
+        <v>2.7680000000000001E-4</v>
+      </c>
+      <c r="D80">
+        <f>B58*(LOG(B58)^2)</f>
+        <v>160000</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="12"/>
+        <v>1.2385539999999999E-2</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="12"/>
+        <v>1.17378E-2</v>
+      </c>
+      <c r="H80" s="9">
+        <f>F58*(LOG(F58)^2)</f>
+        <v>16239129.555160841</v>
+      </c>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" si="11"/>
+        <v>3.1513999999999994E-4</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="11"/>
+        <v>3.1710000000000001E-4</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="12"/>
+        <v>2.3097400000000002E-3</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" si="12"/>
+        <v>2.4001000000000001E-3</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
